--- a/biology/Médecine/Disulfirame/Disulfirame.xlsx
+++ b/biology/Médecine/Disulfirame/Disulfirame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le disulfirame (nom de marque Espéral) ou bis(diéthylthiocarbamyl)disulfure ou disulfure de tétraéthyl-thiocarbamoyle a pour formule brute C10H20N2S4. C'est une poudre blanche, inodore et de saveur légèrement amère, fondant vers 71 °C. Le disulfirame est très soluble dans l'alcool et dans le chloroforme.
@@ -513,7 +525,9 @@
           <t>Interaction avec l'alcool</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le métabolisme normal, l'alcool éthylique est détruit par le foie par l'action d'une enzyme qui le transforme en acétaldéhyde, lui-même converti par l'aldéhyde déshydrogénase en acide acétique, non dangereux. Ce second processus est bloqué par le disulfirame. Lorsque de l'alcool est absorbé après avoir pris du disulfirame, la concentration d'acétaldéhyde dans le sang peut être 5 à 10 fois plus élevée que lors de la prise de la même quantité d'alcool seule. Comme l'acétaldéhyde est un des principaux facteurs de la gueule de bois, sa présence en forte quantité engendre une réaction dissuasive contre la prise d'alcool. Le disulfirame agit 5 à 10 minutes après l'ingestion d'alcool et le malade ressent les effets de la gueule de bois pendant un laps de temps allant de 30 minutes à plusieurs heures. 
 Les autres symptômes observés sont le rougissement de la peau, l'accélération du rythme cardiaque, une difficulté à respirer accompagnée de nausées et vomissements.
@@ -549,7 +563,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action du médicament a été découverte par hasard en 1948 par les chercheurs Erik Jacobsen et Jens Hald dans le laboratoire pharmaceutique Medicinalco au Danemark. Au départ, le médicament était destiné à lutter contre des infections parasitaires, mais les chercheurs, qui testèrent eux-mêmes le produit, ressentirent des troubles sérieux après une ingestion d'alcool.
 On l'obtient actuellement par condensation de la diéthylamine et du disulfure de carbone en présence de soude. Après cette phase, on effectue une oxydation du diéthyl-dithiocarbamate de sodium obtenu par le persulfate d'ammonium.
@@ -581,7 +597,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le disulfirame ne doit pas être considéré comme une guérison de l'alcoolisme car il est plus facile pour un malade de supprimer le disulfirame que l'alcool. Il peut abandonner le traitement s'il n'est pas supervisé. Même si la thérapie d'accompagnement est renforcée, les effets dissuasifs engendrés par le disulfirame risquent de s'avérer insuffisants en cas d'alcoolisme chronique. Le traitement s'adresse plus particulièrement à des malades sélectionnés et motivés, volontaires pour se passer d'alcool lors de séances de psychothérapie de groupe ou individuelles.
 La prescription du disulfirame doit être contre-indiquée chez les patients coronariens ou traités par anti-hypertenseurs.
